--- a/sofaplayer/Premier_League/Manchester City_stats.xlsx
+++ b/sofaplayer/Premier_League/Manchester City_stats.xlsx
@@ -7095,7 +7095,7 @@
         <v>2160</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>

--- a/sofaplayer/Premier_League/Manchester City_stats.xlsx
+++ b/sofaplayer/Premier_League/Manchester City_stats.xlsx
@@ -6722,339 +6722,341 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>John Stones</t>
+          <t>Marc Guéhi</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>152077</v>
+        <v>877994</v>
       </c>
       <c r="E18" t="n">
-        <v>6.5666666666667</v>
+        <v>7.2916666666667</v>
       </c>
       <c r="F18" t="n">
+        <v>24</v>
+      </c>
+      <c r="G18" t="n">
+        <v>24</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2160</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.752</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1080</v>
+      </c>
+      <c r="M18" t="n">
+        <v>22</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>9.090909090909101</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1.78110764</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1754</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1230</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>87.234042553191</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1410</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>722</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>508</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>193</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>58</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>40.277777777778</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>31</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>103</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>123</v>
+      </c>
+      <c r="AU18" t="n">
         <v>7</v>
       </c>
-      <c r="G18" t="n">
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>42.857142857143</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>125</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>64.432989690722</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>58</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>61.052631578947</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>67</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>67.67676767676799</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>220</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>21</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>9</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>26</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>175</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>24</v>
+      </c>
+      <c r="BS18" t="n">
         <v>4</v>
       </c>
-      <c r="H18" t="n">
-        <v>363</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.06005487</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>296</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>240</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>92.664092664093</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>259</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>149</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>91</v>
-      </c>
-      <c r="AJ18" t="n">
+      <c r="BT18" t="n">
+        <v>180</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>21</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>123</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>58</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>21</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>5</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>11</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>7</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>12</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>69</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>32</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>144</v>
+      </c>
+      <c r="DA18" t="n">
         <v>22</v>
       </c>
-      <c r="AK18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="DB18" t="n">
+        <v>64.705882352941</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>776</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>634</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>31</v>
+      </c>
+      <c r="DI18" t="n">
         <v>17</v>
       </c>
-      <c r="AS18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>73.333333333333</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>40</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>90</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>27</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>8</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>6</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>19</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>6</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>4</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>7</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS18" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT18" t="n">
-        <v>4</v>
-      </c>
-      <c r="CU18" t="n">
-        <v>4</v>
-      </c>
-      <c r="CV18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ18" t="n">
-        <v>10</v>
-      </c>
-      <c r="DA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF18" t="n">
-        <v>156</v>
-      </c>
-      <c r="DG18" t="n">
-        <v>103</v>
-      </c>
-      <c r="DH18" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI18" t="n">
-        <v>4</v>
-      </c>
       <c r="DJ18" t="n">
-        <v>2139141</v>
+        <v>2143766</v>
       </c>
       <c r="DK18" t="inlineStr">
         <is>
@@ -7076,341 +7078,339 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Marc Guéhi</t>
+          <t>John Stones</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>877994</v>
+        <v>152077</v>
       </c>
       <c r="E19" t="n">
-        <v>7.2916666666667</v>
+        <v>6.5666666666667</v>
       </c>
       <c r="F19" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>2160</v>
+        <v>363</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.06005487</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>296</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>92.664092664093</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>259</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>149</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>91</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>73.333333333333</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>40</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>90</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>27</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>19</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>6</v>
+      </c>
+      <c r="CD19" t="n">
         <v>4</v>
       </c>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.752</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1080</v>
-      </c>
-      <c r="M19" t="n">
-        <v>22</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>7</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT19" t="n">
         <v>4</v>
       </c>
-      <c r="P19" t="n">
-        <v>9.090909090909101</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1.78110764</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1754</v>
-      </c>
-      <c r="AC19" t="n">
+      <c r="CU19" t="n">
         <v>4</v>
       </c>
-      <c r="AD19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1230</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>87.234042553191</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1410</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>722</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>508</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>193</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>58</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>40.277777777778</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>31</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ19" t="n">
+      <c r="CV19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>10</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>156</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>103</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI19" t="n">
         <v>4</v>
       </c>
-      <c r="AR19" t="n">
-        <v>103</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>123</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>125</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>64.432989690722</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>58</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>61.052631578947</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>67</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>67.67676767676799</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>220</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>16</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>21</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>5</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>9</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>26</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>175</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>24</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>4</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>180</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>9</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>21</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>10</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>123</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>58</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>21</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>5</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>11</v>
-      </c>
-      <c r="CS19" t="n">
-        <v>7</v>
-      </c>
-      <c r="CT19" t="n">
-        <v>12</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>69</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>32</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>144</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>22</v>
-      </c>
-      <c r="DB19" t="n">
-        <v>64.705882352941</v>
-      </c>
-      <c r="DC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF19" t="n">
-        <v>776</v>
-      </c>
-      <c r="DG19" t="n">
-        <v>634</v>
-      </c>
-      <c r="DH19" t="n">
-        <v>31</v>
-      </c>
-      <c r="DI19" t="n">
-        <v>17</v>
-      </c>
       <c r="DJ19" t="n">
-        <v>2143766</v>
+        <v>2139141</v>
       </c>
       <c r="DK19" t="inlineStr">
         <is>
